--- a/Split Value.xlsx
+++ b/Split Value.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CB076F7-5945-4FA6-AC71-B727B8F84EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2C920D-8E85-4E4C-8E8F-B537FF83DD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Full Convert" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,15 +32,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Input</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Component</t>
   </si>
   <si>
     <t>Place</t>
   </si>
   <si>
-    <t>Component</t>
+    <t>Exponent</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Offset</t>
   </si>
   <si>
     <t>Comment</t>
@@ -83,21 +98,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -105,64 +114,53 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -201,6 +199,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{456B75AB-326D-4609-915B-03BB482F0F06}" name="Table13" displayName="Table13" ref="D1:H9" totalsRowShown="0">
+  <autoFilter ref="D1:H9" xr:uid="{FA36BFCF-B6F5-4736-8BFE-94E7705E08F2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{47E4CA81-FC22-4DE5-A326-1CF3D709A31A}" name="Location" dataDxfId="7">
+      <calculatedColumnFormula>IF(ISNUMBER(D1),D1+1,1-$M$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{F0E72E38-1E41-4E32-9854-D0EEE3DC2B9A}" name="Component" dataDxfId="6">
+      <calculatedColumnFormula>VALUE(IF(D2&lt;1,0,RIGHT(LEFT(SUBSTITUTE(B$1," ",""),D2),1)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{586970F2-7623-47DD-BA3B-49E16E16D2D2}" name="Place" dataDxfId="5">
+      <calculatedColumnFormula>IF(ISNUMBER(F1),F1-1,7)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{26C87C61-A53A-43FC-908B-763B36DB45A3}" name="Exponent" dataDxfId="4">
+      <calculatedColumnFormula>2^F2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{11A0A9C1-10F7-4C49-AC70-344772AD1F83}" name="Conversion" dataDxfId="3">
+      <calculatedColumnFormula>E2*G2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA36BFCF-B6F5-4736-8BFE-94E7705E08F2}" name="Table1" displayName="Table1" ref="D1:F9" totalsRowShown="0">
   <autoFilter ref="D1:F9" xr:uid="{FA36BFCF-B6F5-4736-8BFE-94E7705E08F2}"/>
   <tableColumns count="3">
@@ -534,11 +556,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95762C50-1BCF-4AB4-AA65-D86FE9C6BD1B}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>VALUE(LEFT(A2,8))</f>
+        <v>1110101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="19.5">
+      <c r="A2" s="1">
+        <v>1110101</v>
+      </c>
+      <c r="D2">
+        <f>IF(ISNUMBER(D1),D1+1,1-$M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E9" si="0">VALUE(IF(D2&lt;1,0,RIGHT(LEFT(SUBSTITUTE(B$1," ",""),D2),1)))</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F9" si="1">IF(ISNUMBER(F1),F1-1,7)</f>
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G9" si="2">2^F2</f>
+        <v>128</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H9" si="3">E2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUM(Table13[Conversion])</f>
+        <v>117</v>
+      </c>
+      <c r="M2">
+        <f>8-LEN(B1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="D3">
+        <f>IF(ISNUMBER(D2),D2+1,1-$M$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="D4">
+        <f>IF(ISNUMBER(D3),D3+1,1-$M$2)</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="D5">
+        <f>IF(ISNUMBER(D4),D4+1,1-$M$2)</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="19.5">
+      <c r="A6" s="1"/>
+      <c r="D6">
+        <f>IF(ISNUMBER(D5),D5+1,1-$M$2)</f>
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="D7">
+        <f>IF(ISNUMBER(D6),D6+1,1-$M$2)</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="D8">
+        <f>IF(ISNUMBER(D7),D7+1,1-$M$2)</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="D9">
+        <f>IF(ISNUMBER(D8),D8+1,1-$M$2)</f>
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="22" spans="1:1" ht="19.5">
+      <c r="A22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -558,26 +828,26 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H1" t="str">
         <f>_xlfn.CONCAT("b_v=[",TEXT(F9,""),"]")</f>
-        <v>b_v=[0,0,0,0,1,0,1,1]</v>
+        <v>b_v=[0,0,1,0,0,0,0,0]</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5">
       <c r="A2" s="1">
-        <v>1011</v>
+        <v>100000</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D9" si="0">IF(ISNUMBER(D1),D1+1,1-(8-LEN($A$2)))</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ref="E2:E6" si="1">IF(D2&lt;1,0,RIGHT(LEFT(SUBSTITUTE($A$2," ",""),D2),1))</f>
@@ -591,11 +861,11 @@
     <row r="3" spans="1:8">
       <c r="A3">
         <f>LEN(A2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
@@ -609,90 +879,90 @@
     <row r="4" spans="1:8">
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0</v>
+        <v>0,0,1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0</v>
+        <v>0,0,1,0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,1</v>
+        <v>0,0,1,0,0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="str">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="str">
         <f>IF(D7&lt;1,0,RIGHT(LEFT(SUBSTITUTE($A$2," ",""),D7),1))</f>
         <v>0</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,1,0</v>
+        <v>0,0,1,0,0,0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E8" s="7" t="str">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="str">
         <f>IF(D8&lt;1,0,RIGHT(LEFT(SUBSTITUTE($A$2," ",""),D8),1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,1,0,1</v>
+        <v>0,0,1,0,0,0,0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E9" s="7" t="str">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="str">
         <f>IF(D9&lt;1,0,RIGHT(LEFT(SUBSTITUTE($A$2," ",""),D9),1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,1,0,1,1</v>
+        <v>0,0,1,0,0,0,0,0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="8" t="s">
-        <v>4</v>
+      <c r="A10" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -704,33 +974,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96977FC2-F825-420A-9347-6521FC36DE26}">
-  <dimension ref="F7:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="7" spans="6:8">
-      <c r="F7" s="3">
-        <f>1-(8-LEN($A$2))</f>
-        <v>-7</v>
-      </c>
-      <c r="G7" s="4">
-        <f>IF(F7&lt;1,0,RIGHT(LEFT(SUBSTITUTE($A$2," ",""),F7),1))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <f>IF(H6=$F$1,G7,_xlfn.CONCAT(H6,",",G7))</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Split Value.xlsx
+++ b/Split Value.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2C920D-8E85-4E4C-8E8F-B537FF83DD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{701DBB1E-FADA-4F69-8467-8BB2B0B89878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Convert" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Decimal to Text" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
   <si>
     <t>Input</t>
   </si>
@@ -56,6 +57,291 @@
   </si>
   <si>
     <t>Offset</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Word (if applicable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>single quote</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>comma</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>minus</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>underscore</t>
+  </si>
+  <si>
+    <t>grave accent</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>del</t>
   </si>
   <si>
     <t>Comment</t>
@@ -119,18 +405,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -150,6 +437,9 @@
         <name val="Aptos Display"/>
         <scheme val="major"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -202,19 +492,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{456B75AB-326D-4609-915B-03BB482F0F06}" name="Table13" displayName="Table13" ref="D1:H9" totalsRowShown="0">
   <autoFilter ref="D1:H9" xr:uid="{FA36BFCF-B6F5-4736-8BFE-94E7705E08F2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{47E4CA81-FC22-4DE5-A326-1CF3D709A31A}" name="Location" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{47E4CA81-FC22-4DE5-A326-1CF3D709A31A}" name="Location" dataDxfId="8">
       <calculatedColumnFormula>IF(ISNUMBER(D1),D1+1,1-$M$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F0E72E38-1E41-4E32-9854-D0EEE3DC2B9A}" name="Component" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{F0E72E38-1E41-4E32-9854-D0EEE3DC2B9A}" name="Component" dataDxfId="7">
       <calculatedColumnFormula>VALUE(IF(D2&lt;1,0,RIGHT(LEFT(SUBSTITUTE(B$1," ",""),D2),1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{586970F2-7623-47DD-BA3B-49E16E16D2D2}" name="Place" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{586970F2-7623-47DD-BA3B-49E16E16D2D2}" name="Place" dataDxfId="6">
       <calculatedColumnFormula>IF(ISNUMBER(F1),F1-1,7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{26C87C61-A53A-43FC-908B-763B36DB45A3}" name="Exponent" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{26C87C61-A53A-43FC-908B-763B36DB45A3}" name="Exponent" dataDxfId="5">
       <calculatedColumnFormula>2^F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{11A0A9C1-10F7-4C49-AC70-344772AD1F83}" name="Conversion" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{11A0A9C1-10F7-4C49-AC70-344772AD1F83}" name="Conversion" dataDxfId="4">
       <calculatedColumnFormula>E2*G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -223,6 +513,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6117241C-FD7F-4289-987A-08ECCC6C01D9}" name="Table3" displayName="Table3" ref="A1:C97" totalsRowShown="0">
+  <autoFilter ref="A1:C97" xr:uid="{6117241C-FD7F-4289-987A-08ECCC6C01D9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9AC0F404-83A3-4879-BF25-822D0DFA81F8}" name="Decimal" dataDxfId="3">
+      <calculatedColumnFormula>IF(ISNUMBER(A1),A1+1,32)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{0B6A81F1-D952-41EE-B83D-B601747DAA74}" name="Text"/>
+    <tableColumn id="3" xr3:uid="{3AF6DB73-2D0F-44A6-8970-6B438D162048}" name="Word (if applicable)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA36BFCF-B6F5-4736-8BFE-94E7705E08F2}" name="Table1" displayName="Table1" ref="D1:F9" totalsRowShown="0">
   <autoFilter ref="D1:F9" xr:uid="{FA36BFCF-B6F5-4736-8BFE-94E7705E08F2}"/>
   <tableColumns count="3">
@@ -559,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95762C50-1BCF-4AB4-AA65-D86FE9C6BD1B}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,7 +881,7 @@
       </c>
       <c r="B1">
         <f>VALUE(LEFT(A2,8))</f>
-        <v>1110101</v>
+        <v>101110</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -603,11 +907,11 @@
     </row>
     <row r="2" spans="1:13" ht="19.5">
       <c r="A2" s="1">
-        <v>1110101</v>
+        <v>101110</v>
       </c>
       <c r="D2">
         <f>IF(ISNUMBER(D1),D1+1,1-$M$2)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ref="E2:E9" si="0">VALUE(IF(D2&lt;1,0,RIGHT(LEFT(SUBSTITUTE(B$1," ",""),D2),1)))</f>
@@ -621,27 +925,27 @@
         <f t="shared" ref="G2:G9" si="2">2^F2</f>
         <v>128</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <f t="shared" ref="H2:H9" si="3">E2*G2</f>
         <v>0</v>
       </c>
       <c r="J2">
         <f>SUM(Table13[Conversion])</f>
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="M2">
         <f>8-LEN(B1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="D3">
         <f>IF(ISNUMBER(D2),D2+1,1-$M$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
@@ -651,15 +955,15 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="H3" s="4">
-        <f t="shared" si="3"/>
-        <v>64</v>
+      <c r="H3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="D4">
         <f>IF(ISNUMBER(D3),D3+1,1-$M$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
@@ -673,7 +977,7 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -681,11 +985,11 @@
     <row r="5" spans="1:13">
       <c r="D5">
         <f>IF(ISNUMBER(D4),D4+1,1-$M$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
@@ -695,20 +999,20 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H5" s="4">
-        <f t="shared" si="3"/>
-        <v>16</v>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="19.5">
       <c r="A6" s="1"/>
       <c r="D6">
         <f>IF(ISNUMBER(D5),D5+1,1-$M$2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -718,15 +1022,15 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H6" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="D7">
         <f>IF(ISNUMBER(D6),D6+1,1-$M$2)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
@@ -740,7 +1044,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -748,11 +1052,11 @@
     <row r="8" spans="1:13">
       <c r="D8">
         <f>IF(ISNUMBER(D7),D7+1,1-$M$2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -762,19 +1066,19 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="D9">
         <f>IF(ISNUMBER(D8),D8+1,1-$M$2)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -784,9 +1088,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -804,6 +1108,924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DEA0FA-9431-4A80-8C7A-AC29FA9532F1}">
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <f t="shared" ref="A2:A13" si="0">IF(ISNUMBER(A1),A1+1,32)</f>
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4">
+        <f t="shared" ref="A14:A20" si="1">IF(ISNUMBER(A13),A13+1,32)</f>
+        <v>44</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4">
+        <f t="shared" ref="A21:A52" si="2">IF(ISNUMBER(A20),A20+1,32)</f>
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4">
+        <f t="shared" ref="A53:A74" si="3">IF(ISNUMBER(A52),A52+1,32)</f>
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="4">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="4">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="4">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="4">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="4">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="4">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="4">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="4">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="4">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="4">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="4">
+        <f t="shared" ref="A75:A78" si="4">IF(ISNUMBER(A74),A74+1,32)</f>
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="4">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="4">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="4">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="4">
+        <f t="shared" ref="A79:A82" si="5">IF(ISNUMBER(A78),A78+1,32)</f>
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="4">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4">
+        <f t="shared" ref="A83:A87" si="6">IF(ISNUMBER(A82),A82+1,32)</f>
+        <v>113</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4">
+        <f t="shared" ref="A88:A94" si="7">IF(ISNUMBER(A87),A87+1,32)</f>
+        <v>118</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="4">
+        <f t="shared" si="7"/>
+        <v>121</v>
+      </c>
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="4">
+        <f t="shared" si="7"/>
+        <v>122</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="4">
+        <f t="shared" si="7"/>
+        <v>123</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="4">
+        <f t="shared" ref="A95:A97" si="8">IF(ISNUMBER(A94),A94+1,32)</f>
+        <v>125</v>
+      </c>
+      <c r="B95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="4">
+        <f t="shared" si="8"/>
+        <v>126</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="4">
+        <f t="shared" si="8"/>
+        <v>127</v>
+      </c>
+      <c r="C97" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -834,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="H1" t="str">
         <f>_xlfn.CONCAT("b_v=[",TEXT(F9,""),"]")</f>
@@ -962,7 +2184,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Split Value.xlsx
+++ b/Split Value.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{701DBB1E-FADA-4F69-8467-8BB2B0B89878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C61161C-99ED-4689-AA9B-77C93CF10F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
   <si>
     <t>Input</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Word (if applicable)</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -417,7 +420,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -437,6 +440,9 @@
         <name val="Aptos Display"/>
         <scheme val="major"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -492,19 +498,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{456B75AB-326D-4609-915B-03BB482F0F06}" name="Table13" displayName="Table13" ref="D1:H9" totalsRowShown="0">
   <autoFilter ref="D1:H9" xr:uid="{FA36BFCF-B6F5-4736-8BFE-94E7705E08F2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{47E4CA81-FC22-4DE5-A326-1CF3D709A31A}" name="Location" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{47E4CA81-FC22-4DE5-A326-1CF3D709A31A}" name="Location" dataDxfId="9">
       <calculatedColumnFormula>IF(ISNUMBER(D1),D1+1,1-$M$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F0E72E38-1E41-4E32-9854-D0EEE3DC2B9A}" name="Component" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{F0E72E38-1E41-4E32-9854-D0EEE3DC2B9A}" name="Component" dataDxfId="8">
       <calculatedColumnFormula>VALUE(IF(D2&lt;1,0,RIGHT(LEFT(SUBSTITUTE(B$1," ",""),D2),1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{586970F2-7623-47DD-BA3B-49E16E16D2D2}" name="Place" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{586970F2-7623-47DD-BA3B-49E16E16D2D2}" name="Place" dataDxfId="7">
       <calculatedColumnFormula>IF(ISNUMBER(F1),F1-1,7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{26C87C61-A53A-43FC-908B-763B36DB45A3}" name="Exponent" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{26C87C61-A53A-43FC-908B-763B36DB45A3}" name="Exponent" dataDxfId="6">
       <calculatedColumnFormula>2^F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{11A0A9C1-10F7-4C49-AC70-344772AD1F83}" name="Conversion" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{11A0A9C1-10F7-4C49-AC70-344772AD1F83}" name="Conversion" dataDxfId="5">
       <calculatedColumnFormula>E2*G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -513,14 +519,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6117241C-FD7F-4289-987A-08ECCC6C01D9}" name="Table3" displayName="Table3" ref="A1:C97" totalsRowShown="0">
-  <autoFilter ref="A1:C97" xr:uid="{6117241C-FD7F-4289-987A-08ECCC6C01D9}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9AC0F404-83A3-4879-BF25-822D0DFA81F8}" name="Decimal" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6117241C-FD7F-4289-987A-08ECCC6C01D9}" name="Table3" displayName="Table3" ref="A1:D97" totalsRowShown="0">
+  <autoFilter ref="A1:D97" xr:uid="{6117241C-FD7F-4289-987A-08ECCC6C01D9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9AC0F404-83A3-4879-BF25-822D0DFA81F8}" name="Decimal" dataDxfId="4">
       <calculatedColumnFormula>IF(ISNUMBER(A1),A1+1,32)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{0B6A81F1-D952-41EE-B83D-B601747DAA74}" name="Text"/>
     <tableColumn id="3" xr3:uid="{3AF6DB73-2D0F-44A6-8970-6B438D162048}" name="Word (if applicable)"/>
+    <tableColumn id="4" xr3:uid="{1F290801-C8D8-4243-AF7A-FD1717035932}" name="result" dataDxfId="3">
+      <calculatedColumnFormula>IF(ISBLANK(C2),B2,C2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1109,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DEA0FA-9431-4A80-8C7A-AC29FA9532F1}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1121,7 +1130,7 @@
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1131,890 +1140,1287 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="str">
+        <f>LOOKUP(F2,Table3[Decimal],Table3[result])</f>
+        <v>space</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <f t="shared" ref="A2:A13" si="0">IF(ISNUMBER(A1),A1+1,32)</f>
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D33" si="1">IF(ISBLANK(C2),B2,C2)</f>
+        <v>space</v>
+      </c>
+      <c r="F2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>#</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>$</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>%</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>single quote</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
-        <f t="shared" ref="A14:A20" si="1">IF(ISNUMBER(A13),A13+1,32)</f>
+        <f t="shared" ref="A14:A20" si="2">IF(ISNUMBER(A13),A13+1,32)</f>
         <v>44</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>comma</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>minus</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>period</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>32</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>/</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
-        <f t="shared" ref="A21:A52" si="2">IF(ISNUMBER(A20),A20+1,32)</f>
+        <f t="shared" ref="A21:A52" si="3">IF(ISNUMBER(A20),A20+1,32)</f>
         <v>51</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>35</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>39</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ref="D34:D65" si="4">IF(ISBLANK(C34),B34,C34)</f>
+        <v>@</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>44</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="4"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="4"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>48</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="4"/>
+        <v>I</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="4"/>
+        <v>J</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>50</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="4"/>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="4"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="4"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>56</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="4"/>
+        <v>Q</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>57</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="4"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="4">
-        <f t="shared" ref="A53:A74" si="3">IF(ISNUMBER(A52),A52+1,32)</f>
+        <f t="shared" ref="A53:A74" si="5">IF(ISNUMBER(A52),A52+1,32)</f>
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>59</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="4"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>60</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="4"/>
+        <v>U</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="4"/>
+        <v>V</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="4"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>63</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>65</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="4"/>
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="4"/>
+        <v>[</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="4"/>
+        <v>\</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="4"/>
+        <v>]</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>69</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="4"/>
+        <v>^</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="4"/>
+        <v>underscore</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D97" si="6">IF(ISBLANK(C66),B66,C66)</f>
+        <v>grave accent</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>73</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="6"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>74</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="6"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="6"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="6"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="6"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>78</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="6"/>
+        <v>f</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="6"/>
+        <v>g</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>80</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="6"/>
+        <v>h</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="4">
-        <f t="shared" ref="A75:A78" si="4">IF(ISNUMBER(A74),A74+1,32)</f>
+        <f t="shared" ref="A75:A78" si="7">IF(ISNUMBER(A74),A74+1,32)</f>
         <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>81</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="6"/>
+        <v>i</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>82</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="6"/>
+        <v>j</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>83</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="6"/>
+        <v>k</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>84</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="6"/>
+        <v>l</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="4">
-        <f t="shared" ref="A79:A82" si="5">IF(ISNUMBER(A78),A78+1,32)</f>
+        <f t="shared" ref="A79:A82" si="8">IF(ISNUMBER(A78),A78+1,32)</f>
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="6"/>
+        <v>m</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>86</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="6"/>
+        <v>n</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>87</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="6"/>
+        <v>o</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>88</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="6"/>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="4">
-        <f t="shared" ref="A83:A87" si="6">IF(ISNUMBER(A82),A82+1,32)</f>
+        <f t="shared" ref="A83:A87" si="9">IF(ISNUMBER(A82),A82+1,32)</f>
         <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>89</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="6"/>
+        <v>q</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>90</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="6"/>
+        <v>r</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>91</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="6"/>
+        <v>s</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>92</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="6"/>
+        <v>t</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>117</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>93</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="6"/>
+        <v>u</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="4">
-        <f t="shared" ref="A88:A94" si="7">IF(ISNUMBER(A87),A87+1,32)</f>
+        <f t="shared" ref="A88:A94" si="10">IF(ISNUMBER(A87),A87+1,32)</f>
         <v>118</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>94</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="6"/>
+        <v>v</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>95</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="6"/>
+        <v>w</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>96</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="6"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="6"/>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="6"/>
+        <v>z</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="6"/>
+        <v>{</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="6"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="4">
-        <f t="shared" ref="A95:A97" si="8">IF(ISNUMBER(A94),A94+1,32)</f>
+        <f t="shared" ref="A95:A97" si="11">IF(ISNUMBER(A94),A94+1,32)</f>
         <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="6"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>126</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>102</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="6"/>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>127</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="6"/>
+        <v>del</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2462,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H1" t="str">
         <f>_xlfn.CONCAT("b_v=[",TEXT(F9,""),"]")</f>
@@ -2184,7 +2590,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
